--- a/docs/DICTIONNAIRE DE DONNEES Pole Evolution.xlsx
+++ b/docs/DICTIONNAIRE DE DONNEES Pole Evolution.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pewan\Desktop\Programmation\DWWM2025\Projet Fil-Rouge\Pole-Evolution\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA3A3540-868F-42DE-ABAA-B563FFC6692A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F6A056-AA88-4397-9F18-97317E83DDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C1A1EDDE-76CA-4E6C-A5B8-42E4CAE7B8ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{C1A1EDDE-76CA-4E6C-A5B8-42E4CAE7B8ED}"/>
   </bookViews>
   <sheets>
     <sheet name="BDD" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="550">
   <si>
     <t>Champ</t>
   </si>
@@ -281,33 +281,6 @@
     <t>dureeMinutes</t>
   </si>
   <si>
-    <t>[75,90]</t>
-  </si>
-  <si>
-    <t>placesTotales</t>
-  </si>
-  <si>
-    <t>[5,6,7,8,9,10]</t>
-  </si>
-  <si>
-    <t>placesRestantes</t>
-  </si>
-  <si>
-    <t>placesMinCours</t>
-  </si>
-  <si>
-    <t>min:5</t>
-  </si>
-  <si>
-    <t>Min 5 élèves pour maintenir</t>
-  </si>
-  <si>
-    <t>typeCours</t>
-  </si>
-  <si>
-    <t>['collectif','particulier','evjf']</t>
-  </si>
-  <si>
     <t>Type cours</t>
   </si>
   <si>
@@ -341,15 +314,9 @@
     <t>ref:'Utilisateur', required</t>
   </si>
   <si>
-    <t>idCours</t>
-  </si>
-  <si>
     <t>ref:'Cours', required</t>
   </si>
   <si>
-    <t>idForfait</t>
-  </si>
-  <si>
     <t>ref:'Forfait'</t>
   </si>
   <si>
@@ -365,36 +332,15 @@
     <t>Contact téléphone</t>
   </si>
   <si>
-    <t>nbParticipants</t>
-  </si>
-  <si>
-    <t>min:1, max:15</t>
-  </si>
-  <si>
-    <t>Pour EVJF (6-15 pers)</t>
-  </si>
-  <si>
     <t>statut</t>
   </si>
   <si>
-    <t>['en_attente','confirmee','annulee','terminee','absent']</t>
-  </si>
-  <si>
     <t>Statut réservation</t>
   </si>
   <si>
     <t>dateReservation</t>
   </si>
   <si>
-    <t>commentaire</t>
-  </si>
-  <si>
-    <t>Notes élève/admin</t>
-  </si>
-  <si>
-    <t>annulationMotif</t>
-  </si>
-  <si>
     <t>max:300</t>
   </si>
   <si>
@@ -404,9 +350,6 @@
     <t>dateAnnulation</t>
   </si>
   <si>
-    <t>prixPaye</t>
-  </si>
-  <si>
     <t>FORFAITS</t>
   </si>
   <si>
@@ -416,9 +359,6 @@
     <t>categorie</t>
   </si>
   <si>
-    <t>['collectif','abonnement','particulier','evjf','show']</t>
-  </si>
-  <si>
     <t>Catégorie tarif</t>
   </si>
   <si>
@@ -437,15 +377,9 @@
     <t>unite</t>
   </si>
   <si>
-    <t>['par_cours','par_mois','par_personne','forfait','par_heure']</t>
-  </si>
-  <si>
     <t>Unité tarif</t>
   </si>
   <si>
-    <t>nombreCours</t>
-  </si>
-  <si>
     <t>min:1</t>
   </si>
   <si>
@@ -458,24 +392,12 @@
     <t>12 mois (abonnements)</t>
   </si>
   <si>
-    <t>dureeValiditeMois</t>
-  </si>
-  <si>
     <t>2/4/6 mois (cartes)</t>
   </si>
   <si>
-    <t>minParticipants</t>
-  </si>
-  <si>
     <t>6 pour EVJF</t>
   </si>
   <si>
-    <t>maxParticipants</t>
-  </si>
-  <si>
-    <t>15 pour EVJF</t>
-  </si>
-  <si>
     <t>60, 90, 120 (EVJF/shows)</t>
   </si>
   <si>
@@ -659,9 +581,6 @@
     <t>Type valeur</t>
   </si>
   <si>
-    <t>general</t>
-  </si>
-  <si>
     <t>Groupement admin</t>
   </si>
   <si>
@@ -827,9 +746,6 @@
     <t>1h15 ou 1h30</t>
   </si>
   <si>
-    <t>Calculé (total - réservées)</t>
-  </si>
-  <si>
     <t>'collectif'</t>
   </si>
   <si>
@@ -842,12 +758,6 @@
     <t>Tri admin dashboard</t>
   </si>
   <si>
-    <t>Publié ou brouillon REMPLACE statutPublication</t>
-  </si>
-  <si>
-    <t>Max 10 élèves</t>
-  </si>
-  <si>
     <t>typeReservation</t>
   </si>
   <si>
@@ -890,24 +800,15 @@
     <t>lowercase, required</t>
   </si>
   <si>
-    <t>Email membre ou invité</t>
-  </si>
-  <si>
     <t>Niveau déclaré INVITÉ</t>
   </si>
   <si>
-    <t>'en_attente'</t>
-  </si>
-  <si>
     <t>Date création</t>
   </si>
   <si>
     <t>Si annulée &lt;24h → pénalité</t>
   </si>
   <si>
-    <t>Montant payé</t>
-  </si>
-  <si>
     <t>ipAddress</t>
   </si>
   <si>
@@ -1043,9 +944,6 @@
     <t>[Texte complet règlement]</t>
   </si>
   <si>
-    <t>texte_long</t>
-  </si>
-  <si>
     <t>Règlement affichage inscription</t>
   </si>
   <si>
@@ -1106,18 +1004,12 @@
     <t>[Texte présentation Coraline]</t>
   </si>
   <si>
-    <t>presentation</t>
-  </si>
-  <si>
     <t>PAGE À PROPOS ADMIN</t>
   </si>
   <si>
     <t>notifications_actives</t>
   </si>
   <si>
-    <t>boolean</t>
-  </si>
-  <si>
     <t>Activer/désactiver notifications</t>
   </si>
   <si>
@@ -1133,9 +1025,6 @@
     <t>date_ouverture_studio</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
     <t>Date ouverture (stats admin)</t>
   </si>
   <si>
@@ -1145,9 +1034,6 @@
     <t>[Texte mentions légales]</t>
   </si>
   <si>
-    <t>legal</t>
-  </si>
-  <si>
     <t>PAGE MENTIONS LÉGALES</t>
   </si>
   <si>
@@ -1157,9 +1043,6 @@
     <t>ObjectId ref</t>
   </si>
   <si>
-    <t>Non si typeReservation='membre'</t>
-  </si>
-  <si>
     <t>Élève membre crée réservations</t>
   </si>
   <si>
@@ -1172,24 +1055,12 @@
     <t>Carte/abonnement utilisé optionnel</t>
   </si>
   <si>
-    <t>uses</t>
-  </si>
-  <si>
-    <t>Référence délais, messages</t>
-  </si>
-  <si>
-    <t>Référence nb élèves max, couleurs</t>
-  </si>
-  <si>
     <t>Indépendant</t>
   </si>
   <si>
     <t>Galerie gérée uniquement par Coraline</t>
   </si>
   <si>
-    <t>Peut contenir idReservation, typeReservation</t>
-  </si>
-  <si>
     <t>Formulaire contact indépendant</t>
   </si>
   <si>
@@ -1241,9 +1112,6 @@
     <t>3. Crée réservation</t>
   </si>
   <si>
-    <t>typeReservation='invite' + statut='en_attente'</t>
-  </si>
-  <si>
     <t>reservations INSERT</t>
   </si>
   <si>
@@ -1253,9 +1121,6 @@
     <t>Envoie email lien</t>
   </si>
   <si>
-    <t>tokenValidation + estValideEmail=false</t>
-  </si>
-  <si>
     <t>5. Clique lien email</t>
   </si>
   <si>
@@ -1265,9 +1130,6 @@
     <t>estValideEmail=true</t>
   </si>
   <si>
-    <t>Notification Coraline</t>
-  </si>
-  <si>
     <t>6. Coraline approuve</t>
   </si>
   <si>
@@ -1280,9 +1142,6 @@
     <t>statut='confirmee'</t>
   </si>
   <si>
-    <t>Email confirmation invité</t>
-  </si>
-  <si>
     <t>7. Invité confirme</t>
   </si>
   <si>
@@ -1667,17 +1526,176 @@
     <t>GET /api/parametres/delai_annulation_heures</t>
   </si>
   <si>
-    <t xml:space="preserve">Délai annulation avant cours </t>
-  </si>
-  <si>
     <t>Nombre max élèves par défaut</t>
+  </si>
+  <si>
+    <t>capaciteMax</t>
+  </si>
+  <si>
+    <t>placesReservees</t>
+  </si>
+  <si>
+    <t>Nombre de places réservées</t>
+  </si>
+  <si>
+    <t>capaciteMin</t>
+  </si>
+  <si>
+    <t>min:5 (6 pour EVJF)</t>
+  </si>
+  <si>
+    <t>['collectif','particulier','evjf','prestation']</t>
+  </si>
+  <si>
+    <t>Publié ou brouillon</t>
+  </si>
+  <si>
+    <t>Max 10 élèves (12 pour EVJF)</t>
+  </si>
+  <si>
+    <t>Min 5 élèves (6 pour EVJF)</t>
+  </si>
+  <si>
+    <t>utilisateur</t>
+  </si>
+  <si>
+    <t>forfait</t>
+  </si>
+  <si>
+    <t>emailInvite</t>
+  </si>
+  <si>
+    <t>Email invité (si type='invite')</t>
+  </si>
+  <si>
+    <t>telephoneInvite</t>
+  </si>
+  <si>
+    <t>Contact téléphone invité</t>
+  </si>
+  <si>
+    <t>niveauPoleInvite</t>
+  </si>
+  <si>
+    <t>nombrePlaces</t>
+  </si>
+  <si>
+    <t>min:1, max:12</t>
+  </si>
+  <si>
+    <t>'enattente'</t>
+  </si>
+  <si>
+    <t>['enattente','confirmee','annulee','present','absent']</t>
+  </si>
+  <si>
+    <t>commentaireEleve</t>
+  </si>
+  <si>
+    <t>Notes élève</t>
+  </si>
+  <si>
+    <t>raisonAnnulation</t>
+  </si>
+  <si>
+    <t>paiement.montant</t>
+  </si>
+  <si>
+    <t>Montant à payer</t>
+  </si>
+  <si>
+    <t>paiement.estPaye</t>
+  </si>
+  <si>
+    <t>Paiement effectué</t>
+  </si>
+  <si>
+    <t>['collectif','abonnement','particulier','evjf','show','prestation']</t>
+  </si>
+  <si>
+    <t>['parcours','parmois','parpersonne','forfait','parheure']</t>
+  </si>
+  <si>
+    <t>nombreSeances</t>
+  </si>
+  <si>
+    <t>validiteMois</t>
+  </si>
+  <si>
+    <t>min:6 (pour EVJF)</t>
+  </si>
+  <si>
+    <t>max:12 (pour EVJF)</t>
+  </si>
+  <si>
+    <t>12 pour EVJF</t>
+  </si>
+  <si>
+    <t>Pour EVJF (6-12 pers)</t>
+  </si>
+  <si>
+    <t>Délai annulation avant cours</t>
+  </si>
+  <si>
+    <t>interface</t>
+  </si>
+  <si>
+    <t>reseaux_sociaux</t>
+  </si>
+  <si>
+    <t>booleen</t>
+  </si>
+  <si>
+    <t>emails</t>
+  </si>
+  <si>
+    <t>Oui (si typeReservation='invite')</t>
+  </si>
+  <si>
+    <t>data (utilisateurs, cours, reservations)</t>
+  </si>
+  <si>
+    <t>1 ---- 1-3</t>
+  </si>
+  <si>
+    <t>Object (polymorphe)</t>
+  </si>
+  <si>
+    <t>Référence contexte: utilisateurId, coursId, reservationId</t>
+  </si>
+  <si>
+    <t>reservations, cours</t>
+  </si>
+  <si>
+    <t>Config globale</t>
+  </si>
+  <si>
+    <t>Référence délais, messages (lecture seule)</t>
+  </si>
+  <si>
+    <t>Email validation invité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notification Coraline </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email confirmation invité </t>
+  </si>
+  <si>
+    <t>Membres seulement</t>
+  </si>
+  <si>
+    <t>typeReservation='invite' + statut='en_attente'</t>
+  </si>
+  <si>
+    <t>tokenValidation + estValideEmail=false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1719,6 +1737,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1740,7 +1785,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1785,11 +1830,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1802,9 +1919,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1823,8 +1937,56 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2139,8 +2301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FC49A22-2DFE-4A75-ADC6-FD50EE9D58FB}">
   <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2156,36 +2318,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
@@ -2262,7 +2424,7 @@
         <v>18</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2311,7 +2473,7 @@
         <v>23</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>24</v>
@@ -2340,7 +2502,7 @@
         <v>27</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2363,10 +2525,10 @@
         <v>12</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2418,7 +2580,7 @@
         <v>36</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2444,7 +2606,7 @@
         <v>39</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2470,7 +2632,7 @@
         <v>41</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2496,7 +2658,7 @@
         <v>41</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2513,7 +2675,7 @@
         <v>11</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
@@ -2522,7 +2684,7 @@
         <v>44</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2539,7 +2701,7 @@
         <v>29</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
@@ -2548,7 +2710,7 @@
         <v>46</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>387</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2574,7 +2736,7 @@
         <v>12</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2600,7 +2762,7 @@
         <v>51</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2626,7 +2788,7 @@
         <v>54</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2652,7 +2814,7 @@
         <v>54</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2698,13 +2860,13 @@
         <v>48</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2730,7 +2892,7 @@
         <v>12</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2756,7 +2918,7 @@
         <v>12</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2782,7 +2944,7 @@
         <v>12</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2838,36 +3000,36 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -2896,452 +3058,448 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="3" t="s">
+      <c r="D33" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="3" t="s">
+      <c r="G33" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="20" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="D34" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>258</v>
+      <c r="H34" s="20" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="3" t="s">
+      <c r="D35" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="20" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="3" t="s">
+      <c r="E36" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>259</v>
+      <c r="H36" s="20" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="3" t="s">
+      <c r="D37" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="20">
+        <v>90</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="22"/>
+      <c r="H39" s="21" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="20">
+        <v>0</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="20">
+        <v>5</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>500</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="21" t="s">
+        <v>501</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="20">
+        <v>25</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="F44" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="3">
-        <v>90</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="C45" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" s="20">
+        <v>0</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="D46" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="3">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H41" s="3" t="s">
+      <c r="F46" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="20" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="20" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" s="3">
-        <v>25</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
@@ -3370,1173 +3528,1173 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="3" t="s">
+      <c r="D53" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="3" t="s">
+      <c r="G53" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G54" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="H54" s="20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="20" t="s">
+        <v>505</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="20" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="20" t="s">
+        <v>506</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E57" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>250</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="H58" s="20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>507</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
+        <v>509</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="20" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
+        <v>511</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E61" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>512</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E62" s="20">
+        <v>1</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="H62" s="21" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="B54" s="3" t="s">
+      <c r="B63" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="C63" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="F63" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="H63" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="3" t="s">
+    </row>
+    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>516</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="H65" s="20" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="20" t="s">
+        <v>518</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="H66" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="20" t="s">
+        <v>519</v>
+      </c>
+      <c r="B68" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H68" s="20" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="20" t="s">
+        <v>521</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E70" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="20" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E71" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="20" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="20" t="s">
+        <v>262</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="14"/>
+    </row>
+    <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="15"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="17"/>
+    </row>
+    <row r="78" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="18"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="19"/>
+    </row>
+    <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="3" t="s">
+      <c r="C80" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G81" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H81" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="20" t="s">
+        <v>523</v>
+      </c>
+      <c r="H82" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H83" s="20" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="E84" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="H84" s="20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H85" s="20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="C86" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="20" t="s">
+        <v>524</v>
+      </c>
+      <c r="H86" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
+        <v>525</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="E87" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H87" s="20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" s="3" t="s">
+      <c r="E88" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H88" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="B89" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="C89" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E89" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="21" t="s">
+        <v>499</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E90" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="21" t="s">
+        <v>527</v>
+      </c>
+      <c r="H90" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="21" t="s">
+        <v>528</v>
+      </c>
+      <c r="H91" s="21" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93" s="20">
+        <v>0</v>
+      </c>
+      <c r="F93" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="20" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F94" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F95" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="14"/>
+    </row>
+    <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="15"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="17"/>
+    </row>
+    <row r="99" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="18"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="19"/>
+    </row>
+    <row r="100" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A100" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-    </row>
-    <row r="76" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-    </row>
-    <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-    </row>
-    <row r="78" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C78" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="4" t="s">
+      <c r="D100" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E100" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F100" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G78" s="4" t="s">
+      <c r="G100" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H78" s="4" t="s">
+      <c r="H100" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E92" s="3">
-        <v>0</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-    </row>
-    <row r="97" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-    </row>
-    <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-    </row>
-    <row r="99" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A99" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F99" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>11</v>
@@ -4545,24 +4703,24 @@
         <v>12</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>148</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>149</v>
+        <v>70</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>11</v>
@@ -4571,24 +4729,24 @@
         <v>12</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E103" s="3" t="s">
         <v>11</v>
@@ -4597,47 +4755,47 @@
         <v>12</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>11</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>26</v>
@@ -4646,10 +4804,10 @@
         <v>11</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>12</v>
@@ -4657,175 +4815,175 @@
     </row>
     <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>301</v>
+        <v>48</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>158</v>
+        <v>268</v>
       </c>
       <c r="G107" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>12</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E108" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F108" s="3" t="s">
+      <c r="E109" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F109" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
-      <c r="F109" s="11"/>
-      <c r="G109" s="11"/>
-      <c r="H109" s="11"/>
+      <c r="G109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="11"/>
-      <c r="F110" s="11"/>
-      <c r="G110" s="11"/>
-      <c r="H110" s="11"/>
+      <c r="A110" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14"/>
     </row>
     <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
+      <c r="A111" s="15"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="17"/>
     </row>
     <row r="112" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="18"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="11"/>
+      <c r="H112" s="19"/>
+    </row>
+    <row r="113" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B113" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C113" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="D113" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E112" s="4" t="s">
+      <c r="E113" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F113" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G112" s="4" t="s">
+      <c r="G113" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H112" s="4" t="s">
+      <c r="H113" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>11</v>
@@ -4834,128 +4992,128 @@
         <v>12</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F115" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>160</v>
+        <v>94</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>162</v>
+        <v>271</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>305</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F118" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>164</v>
+        <v>12</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>388</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>11</v>
@@ -4967,44 +5125,44 @@
         <v>12</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>166</v>
+        <v>345</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="F120" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>26</v>
@@ -5013,7 +5171,7 @@
         <v>11</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F121" s="3" t="s">
         <v>12</v>
@@ -5022,44 +5180,44 @@
         <v>12</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F122" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>306</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>29</v>
@@ -5071,131 +5229,131 @@
         <v>12</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>174</v>
+        <v>273</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C124" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D124" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E124" s="3" t="s">
+      <c r="D125" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B125" s="11"/>
-      <c r="C125" s="11"/>
-      <c r="D125" s="11"/>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
+      <c r="F125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="126" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="11"/>
-      <c r="D126" s="11"/>
-      <c r="E126" s="11"/>
-      <c r="F126" s="11"/>
-      <c r="G126" s="11"/>
-      <c r="H126" s="11"/>
+      <c r="A126" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="14"/>
     </row>
     <row r="127" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="11"/>
-      <c r="D127" s="11"/>
-      <c r="E127" s="11"/>
-      <c r="F127" s="11"/>
-      <c r="G127" s="11"/>
-      <c r="H127" s="11"/>
+      <c r="A127" s="15"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="17"/>
     </row>
     <row r="128" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="18"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="19"/>
+    </row>
+    <row r="129" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B129" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C129" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D128" s="4" t="s">
+      <c r="D129" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E128" s="4" t="s">
+      <c r="E129" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="F129" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G128" s="4" t="s">
+      <c r="G129" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H128" s="4" t="s">
+      <c r="H129" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G129" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>11</v>
@@ -5204,24 +5362,24 @@
         <v>12</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>176</v>
+        <v>89</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>11</v>
@@ -5233,73 +5391,73 @@
         <v>12</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F132" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F133" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>180</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>11</v>
@@ -5311,70 +5469,70 @@
         <v>12</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>311</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>312</v>
+        <v>155</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>53</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E135" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F135" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>313</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>183</v>
+        <v>279</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>62</v>
+        <v>29</v>
+      </c>
+      <c r="E136" s="3">
+        <v>0</v>
       </c>
       <c r="F136" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>184</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>26</v>
@@ -5383,7 +5541,7 @@
         <v>11</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="F137" s="3" t="s">
         <v>12</v>
@@ -5392,12 +5550,12 @@
         <v>12</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>186</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>38</v>
@@ -5418,12 +5576,12 @@
         <v>12</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>314</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>187</v>
+        <v>47</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>38</v>
@@ -5444,24 +5602,24 @@
         <v>12</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>188</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>12</v>
@@ -5470,12 +5628,12 @@
         <v>12</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>32</v>
@@ -5496,102 +5654,102 @@
         <v>12</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11"/>
-      <c r="F142" s="11"/>
-      <c r="G142" s="11"/>
-      <c r="H142" s="11"/>
+      <c r="A142" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="143" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="11"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
+      <c r="A143" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B143" s="13"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="13"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
+      <c r="H143" s="14"/>
     </row>
     <row r="144" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="11"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
-      <c r="F144" s="11"/>
-      <c r="G144" s="11"/>
-      <c r="H144" s="11"/>
+      <c r="A144" s="15"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="17"/>
     </row>
     <row r="145" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="18"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="19"/>
+    </row>
+    <row r="146" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B146" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C146" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D145" s="4" t="s">
+      <c r="D146" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E145" s="4" t="s">
+      <c r="E146" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F145" s="4" t="s">
+      <c r="F146" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G145" s="4" t="s">
+      <c r="G146" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H145" s="4" t="s">
+      <c r="H146" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G146" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H146" s="3" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>11</v>
@@ -5600,24 +5758,24 @@
         <v>12</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>11</v>
@@ -5629,41 +5787,41 @@
         <v>12</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>192</v>
+        <v>12</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>16</v>
@@ -5681,67 +5839,67 @@
         <v>12</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>316</v>
+        <v>168</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>317</v>
+        <v>30</v>
       </c>
       <c r="F151" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>195</v>
+        <v>51</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>196</v>
+        <v>283</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>48</v>
+        <v>284</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>318</v>
+        <v>170</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>38</v>
@@ -5762,24 +5920,24 @@
         <v>12</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>197</v>
+        <v>285</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E154" s="3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="F154" s="3" t="s">
         <v>12</v>
@@ -5788,24 +5946,24 @@
         <v>12</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>319</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>62</v>
+        <v>29</v>
+      </c>
+      <c r="E155" s="3">
+        <v>0</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>12</v>
@@ -5814,12 +5972,12 @@
         <v>12</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>95</v>
+        <v>286</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>32</v>
@@ -5840,102 +5998,102 @@
         <v>12</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B157" s="11"/>
-      <c r="C157" s="11"/>
-      <c r="D157" s="11"/>
-      <c r="E157" s="11"/>
-      <c r="F157" s="11"/>
-      <c r="G157" s="11"/>
-      <c r="H157" s="11"/>
+      <c r="A157" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="158" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="11"/>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="11"/>
+      <c r="A158" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B158" s="13"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
+      <c r="H158" s="14"/>
     </row>
     <row r="159" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="11"/>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="11"/>
+      <c r="A159" s="15"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="17"/>
     </row>
     <row r="160" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="18"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="11"/>
+      <c r="E160" s="11"/>
+      <c r="F160" s="11"/>
+      <c r="G160" s="11"/>
+      <c r="H160" s="19"/>
+    </row>
+    <row r="161" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B161" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C161" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="D161" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E160" s="4" t="s">
+      <c r="E161" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F160" s="4" t="s">
+      <c r="F161" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G160" s="4" t="s">
+      <c r="G161" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H160" s="4" t="s">
+      <c r="H161" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H161" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>200</v>
+        <v>8</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>201</v>
+        <v>10</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>11</v>
@@ -5944,24 +6102,24 @@
         <v>12</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G162" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>320</v>
+        <v>173</v>
       </c>
     </row>
     <row r="163" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>203</v>
+        <v>16</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>26</v>
+        <v>175</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>11</v>
@@ -5970,44 +6128,44 @@
         <v>12</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G163" s="3" t="s">
         <v>12</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
     </row>
     <row r="164" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>322</v>
+        <v>12</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>323</v>
+        <v>12</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
     </row>
     <row r="165" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>16</v>
@@ -6016,62 +6174,62 @@
         <v>35</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>325</v>
+        <v>290</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>30</v>
+        <v>291</v>
       </c>
       <c r="F166" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>12</v>
+        <v>292</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
-        <v>209</v>
+        <v>76</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>12</v>
@@ -6080,53 +6238,81 @@
         <v>12</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>326</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B169" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C169" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D168" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E168" s="3" t="s">
+      <c r="D169" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F168" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H168" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="F169" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
     <row r="170" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="171" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A142:H144"/>
     <mergeCell ref="A49:H51"/>
-    <mergeCell ref="A157:H159"/>
     <mergeCell ref="A1:H3"/>
     <mergeCell ref="A29:H31"/>
-    <mergeCell ref="A75:H77"/>
-    <mergeCell ref="A96:H98"/>
-    <mergeCell ref="A109:H111"/>
-    <mergeCell ref="A125:H127"/>
+    <mergeCell ref="A76:H78"/>
+    <mergeCell ref="A97:H99"/>
+    <mergeCell ref="A110:H112"/>
+    <mergeCell ref="A126:H128"/>
+    <mergeCell ref="A143:H145"/>
+    <mergeCell ref="A158:H160"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="G39" r:id="rId1" display="https://ppl-ai-file-upload.s3.amazonaws.com/web/direct-files/collection_90943176-41f0-42ec-a3d6-aef3f4007b95/6a664160-637d-4ad3-8416-17734945f7b4/Reservation-Controllers.txt" xr:uid="{E155E5D2-CA04-4BA8-876C-567DDA0E0381}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6135,7 +6321,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6148,338 +6334,345 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="A1" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="A4" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="A5" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B5" s="20">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>542</v>
+      <c r="C5" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="20">
+        <v>10</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="B20" s="25">
+        <v>43466</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="3">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B21" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="C21" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="B20" s="7">
-        <v>43466</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" display="mailto:contact@pole-evolution.fr" xr:uid="{EFD47906-F6C4-4DF8-8240-ADD98FA24DF2}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{3478D713-704E-41A3-95EB-D3D2DD906BA3}"/>
+    <hyperlink ref="B15" r:id="rId3" xr:uid="{4B6E1ED2-2910-4EB5-8F21-047AD7B7DC61}"/>
+    <hyperlink ref="B16" r:id="rId4" xr:uid="{6E3888AC-9F8D-416A-A3D7-C78FB57F51D9}"/>
+    <hyperlink ref="B19" r:id="rId5" display="mailto:coraline@pole-evolution.fr" xr:uid="{56B9A025-B6EE-486D-AE10-3DF35C885221}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6489,7 +6682,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6504,234 +6697,222 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="A1" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="A4" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="F4" s="23" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="E6" s="8" t="s">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>536</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="F6" s="20" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>382</v>
+      <c r="F7" s="20" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>537</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>538</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>539</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>541</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>542</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>383</v>
-      </c>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6746,7 +6927,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6759,178 +6940,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>393</v>
+      <c r="A4" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>347</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>349</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="A5" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="A6" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="A7" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>548</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
+      <c r="A8" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>549</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>408</v>
+      <c r="A9" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>413</v>
+      <c r="A10" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="A11" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="A12" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>547</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6960,128 +7141,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="A1" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>423</v>
+        <v>376</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>424</v>
+        <v>377</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>425</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>426</v>
+        <v>379</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>427</v>
+        <v>380</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>428</v>
+        <v>381</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>430</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>432</v>
+        <v>385</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>434</v>
+        <v>387</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>435</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>437</v>
+        <v>390</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>438</v>
+        <v>391</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>434</v>
+        <v>387</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>439</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>440</v>
+        <v>393</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>441</v>
+        <v>394</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>442</v>
+        <v>395</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>443</v>
+        <v>396</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>444</v>
+        <v>397</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>445</v>
+        <v>398</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>446</v>
+        <v>399</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>429</v>
+        <v>382</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -7096,8 +7277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EF539C-FBCF-4135-A2EE-862A534B8B58}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7112,584 +7293,584 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>451</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="E16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="G16" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="E5" s="10" t="s">
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="E17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G17" s="7" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="D18" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="G18" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="G6" s="10" t="s">
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="E19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="G19" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="G7" s="10" t="s">
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="D20" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="E20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="G20" s="7" t="s">
         <v>471</v>
       </c>
-      <c r="F8" s="10" t="s">
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="E21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="G21" s="7" t="s">
         <v>474</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="10" t="s">
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C22" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="D22" s="7" t="s">
         <v>476</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="E22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G22" s="7" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C10" s="10" t="s">
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="G23" s="7" t="s">
         <v>481</v>
       </c>
-      <c r="G10" s="10" t="s">
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="D24" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="E24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G24" s="7" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C12" s="10" t="s">
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="G25" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="F12" s="10" t="s">
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="D26" s="7" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="E26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="G26" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="10" t="s">
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="E27" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="G27" s="7" t="s">
         <v>494</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>511</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>524</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>541</v>
       </c>
     </row>
   </sheetData>
